--- a/Simple_XLS_Importer/data/DP-MOD/Map_of_donors_Ongoing_Final_funding.xlsx
+++ b/Simple_XLS_Importer/data/DP-MOD/Map_of_donors_Ongoing_Final_funding.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos\Documents\projects\landbook-importers\Simple_XLS_Importer\data\DP-MOD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="555" windowWidth="20625" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="3468" yWindow="552" windowWidth="20628" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="metadata" sheetId="3" r:id="rId2"/>
     <sheet name="Metadat_Statistical_&amp;_Notes" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -508,16 +513,9 @@
     <t>IMPORTANT: Project of "global relevance" and project where the target country is missing will be dropped in the final version</t>
   </si>
   <si>
-    <t>Total_Funding_Ongoing_Project
-('000 $)</t>
-  </si>
-  <si>
     <t>N of Ongoing project - till Jan 2016</t>
   </si>
   <si>
-    <t>Total funding for ongoing projects - 1'000 $</t>
-  </si>
-  <si>
     <t>org_acronym</t>
   </si>
   <si>
@@ -543,16 +541,22 @@
   </si>
   <si>
     <t>MOD</t>
+  </si>
+  <si>
+    <t>Total funding for ongoing projects -Current USD</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -648,7 +652,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -677,6 +681,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -685,6 +690,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1009,30 +1022,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30">
+    <row r="1" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1040,10 +1053,10 @@
         <v>2016</v>
       </c>
       <c r="C2">
-        <v>168.42105102539062</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>168421.05102539063</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1051,18 +1064,21 @@
         <v>2016</v>
       </c>
       <c r="C3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2016</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1070,10 +1086,10 @@
         <v>2016</v>
       </c>
       <c r="C5">
-        <v>4816.66650390625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>4816666.50390625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1081,10 +1097,10 @@
         <v>2016</v>
       </c>
       <c r="C6">
-        <v>4816.66650390625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>4816666.50390625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1092,10 +1108,10 @@
         <v>2016</v>
       </c>
       <c r="C7">
-        <v>168.42105102539062</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>168421.05102539063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1103,10 +1119,10 @@
         <v>2016</v>
       </c>
       <c r="C8">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>1229000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1114,18 +1130,21 @@
         <v>2016</v>
       </c>
       <c r="C9">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>875000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>2016</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1133,18 +1152,21 @@
         <v>2016</v>
       </c>
       <c r="C11">
-        <v>1953.036376953125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>1953036.376953125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>2016</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1152,10 +1174,10 @@
         <v>2016</v>
       </c>
       <c r="C13">
-        <v>3975</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>3975000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1163,10 +1185,10 @@
         <v>2016</v>
       </c>
       <c r="C14">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1174,10 +1196,10 @@
         <v>2016</v>
       </c>
       <c r="C15">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>1314000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1185,10 +1207,10 @@
         <v>2016</v>
       </c>
       <c r="C16">
-        <v>1695.5128173828125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>1695512.8173828125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1196,10 +1218,10 @@
         <v>2016</v>
       </c>
       <c r="C17">
-        <v>5935.8974609375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>5935897.4609375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1207,10 +1229,10 @@
         <v>2016</v>
       </c>
       <c r="C18">
-        <v>235.89743041992187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>235897.43041992188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1218,10 +1240,10 @@
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>4882.4208984375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>4882420.8984375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1229,10 +1251,10 @@
         <v>2016</v>
       </c>
       <c r="C20">
-        <v>988.93389892578125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>988933.89892578125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1240,10 +1262,10 @@
         <v>2016</v>
       </c>
       <c r="C21">
-        <v>5785.8974609375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>5785897.4609375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1251,10 +1273,10 @@
         <v>2016</v>
       </c>
       <c r="C22">
-        <v>235.89743041992187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>235897.43041992188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1262,10 +1284,10 @@
         <v>2016</v>
       </c>
       <c r="C23">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1273,10 +1295,10 @@
         <v>2016</v>
       </c>
       <c r="C24">
-        <v>584.6153564453125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>584615.3564453125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1284,10 +1306,10 @@
         <v>2016</v>
       </c>
       <c r="C25">
-        <v>1953.036376953125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>1953036.376953125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1295,10 +1317,10 @@
         <v>2016</v>
       </c>
       <c r="C26">
-        <v>235.89743041992187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>235897.43041992188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1306,10 +1328,10 @@
         <v>2016</v>
       </c>
       <c r="C27">
-        <v>53112.265625</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>53112265.625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1317,10 +1339,10 @@
         <v>2016</v>
       </c>
       <c r="C28">
-        <v>2741.666748046875</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>2741666.748046875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1328,18 +1350,21 @@
         <v>2016</v>
       </c>
       <c r="C29">
-        <v>10760.8974609375</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>10760897.4609375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
         <v>2016</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1347,10 +1372,10 @@
         <v>2016</v>
       </c>
       <c r="C31">
-        <v>935.8974609375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>935897.4609375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1358,10 +1383,10 @@
         <v>2016</v>
       </c>
       <c r="C32">
-        <v>1368.4210205078125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>1368421.0205078125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1369,10 +1394,10 @@
         <v>2016</v>
       </c>
       <c r="C33">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>1375000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1380,10 +1405,10 @@
         <v>2016</v>
       </c>
       <c r="C34">
-        <v>235.89743041992187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>235897.43041992188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1391,10 +1416,10 @@
         <v>2016</v>
       </c>
       <c r="C35">
-        <v>235.89743041992187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>235897.43041992188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1402,10 +1427,10 @@
         <v>2016</v>
       </c>
       <c r="C36">
-        <v>176760.890625</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>176760890.625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1413,10 +1438,10 @@
         <v>2016</v>
       </c>
       <c r="C37">
-        <v>19642.333984375</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>19642333.984375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1424,10 +1449,10 @@
         <v>2016</v>
       </c>
       <c r="C38">
-        <v>235.89743041992187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>235897.43041992188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1435,10 +1460,10 @@
         <v>2016</v>
       </c>
       <c r="C39">
-        <v>735.8974609375</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>735897.4609375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1446,10 +1471,10 @@
         <v>2016</v>
       </c>
       <c r="C40">
-        <v>4816.66650390625</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>4816666.50390625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1457,10 +1482,10 @@
         <v>2016</v>
       </c>
       <c r="C41">
-        <v>41309.23046875</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>41309230.46875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1468,10 +1493,10 @@
         <v>2016</v>
       </c>
       <c r="C42">
-        <v>3550</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>3550000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1479,10 +1504,10 @@
         <v>2016</v>
       </c>
       <c r="C43">
-        <v>179473.703125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>179473703.125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1490,10 +1515,10 @@
         <v>2016</v>
       </c>
       <c r="C44">
-        <v>10560.8974609375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>10560897.4609375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1501,10 +1526,10 @@
         <v>2016</v>
       </c>
       <c r="C45">
-        <v>235.89743041992187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>235897.43041992188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1512,18 +1537,21 @@
         <v>2016</v>
       </c>
       <c r="C46">
-        <v>41073.33203125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>41073332.03125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47">
         <v>2016</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1531,10 +1559,10 @@
         <v>2016</v>
       </c>
       <c r="C48">
-        <v>2741.666748046875</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>2741666.748046875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1542,10 +1570,10 @@
         <v>2016</v>
       </c>
       <c r="C49">
-        <v>168.42105102539062</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>168421.05102539063</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1553,10 +1581,10 @@
         <v>2016</v>
       </c>
       <c r="C50">
-        <v>48327.87109375</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>48327871.09375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1564,18 +1592,21 @@
         <v>2016</v>
       </c>
       <c r="C51">
-        <v>3550</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>3550000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52">
         <v>2016</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1583,10 +1614,10 @@
         <v>2016</v>
       </c>
       <c r="C53">
-        <v>604.3184814453125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>604318.4814453125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1594,26 +1625,32 @@
         <v>2016</v>
       </c>
       <c r="C54">
-        <v>1975.6666259765625</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>1975666.6259765625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55">
         <v>2016</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56">
         <v>2016</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1621,18 +1658,21 @@
         <v>2016</v>
       </c>
       <c r="C57">
-        <v>8286.115234375</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>8286115.234375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58">
         <v>2016</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1640,10 +1680,10 @@
         <v>2016</v>
       </c>
       <c r="C59">
-        <v>42393.84765625</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>42393847.65625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1651,10 +1691,10 @@
         <v>2016</v>
       </c>
       <c r="C60">
-        <v>404.3184814453125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>404318.4814453125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1662,10 +1702,10 @@
         <v>2016</v>
       </c>
       <c r="C61">
-        <v>176060.890625</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>176060890.625</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1673,10 +1713,10 @@
         <v>2016</v>
       </c>
       <c r="C62">
-        <v>6501.50048828125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>6501500.48828125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1684,10 +1724,10 @@
         <v>2016</v>
       </c>
       <c r="C63">
-        <v>1695.5128173828125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>1695512.8173828125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1695,10 +1735,10 @@
         <v>2016</v>
       </c>
       <c r="C64">
-        <v>235.89743041992187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>235897.43041992188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1706,26 +1746,32 @@
         <v>2016</v>
       </c>
       <c r="C65">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>1229000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66">
         <v>2016</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67">
         <v>2016</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -1733,10 +1779,10 @@
         <v>2016</v>
       </c>
       <c r="C68">
-        <v>13525.8974609375</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>13525897.4609375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -1744,10 +1790,10 @@
         <v>2016</v>
       </c>
       <c r="C69">
-        <v>223199.828125</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>223199828.125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -1755,10 +1801,10 @@
         <v>2016</v>
       </c>
       <c r="C70">
-        <v>4210.8974609375</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>4210897.4609375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -1766,18 +1812,21 @@
         <v>2016</v>
       </c>
       <c r="C71">
-        <v>176878.03125</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>176878031.25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72">
         <v>2016</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -1785,10 +1834,10 @@
         <v>2016</v>
       </c>
       <c r="C73">
-        <v>668.42108154296875</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>668421.08154296875</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -1796,10 +1845,10 @@
         <v>2016</v>
       </c>
       <c r="C74">
-        <v>176935.890625</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>176935890.625</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -1807,26 +1856,32 @@
         <v>2016</v>
       </c>
       <c r="C75">
-        <v>235.89743041992187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>235897.43041992188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76">
         <v>2016</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77">
         <v>2016</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -1834,18 +1889,21 @@
         <v>2016</v>
       </c>
       <c r="C78">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>1375000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79">
         <v>2016</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -1853,10 +1911,10 @@
         <v>2016</v>
       </c>
       <c r="C80">
-        <v>4553.03662109375</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>4553036.62109375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -1864,18 +1922,21 @@
         <v>2016</v>
       </c>
       <c r="C81">
-        <v>6669.921875</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>6669921.875</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82">
         <v>2016</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -1883,10 +1944,10 @@
         <v>2016</v>
       </c>
       <c r="C83">
-        <v>235.89743041992187</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>235897.43041992188</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -1894,10 +1955,10 @@
         <v>2016</v>
       </c>
       <c r="C84">
-        <v>3550</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>3550000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -1905,18 +1966,21 @@
         <v>2016</v>
       </c>
       <c r="C85">
-        <v>3550</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>3550000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
       <c r="B86">
         <v>2016</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -1924,18 +1988,21 @@
         <v>2016</v>
       </c>
       <c r="C87">
-        <v>176735.890625</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>176735890.625</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
       <c r="B88">
         <v>2016</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -1943,10 +2010,10 @@
         <v>2016</v>
       </c>
       <c r="C89">
-        <v>235.89743041992187</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>235897.43041992188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -1954,10 +2021,10 @@
         <v>2016</v>
       </c>
       <c r="C90">
-        <v>2601.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>2601500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -1965,10 +2032,10 @@
         <v>2016</v>
       </c>
       <c r="C91">
-        <v>1975.6666259765625</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>1975666.6259765625</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -1976,10 +2043,10 @@
         <v>2016</v>
       </c>
       <c r="C92">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -1987,10 +2054,10 @@
         <v>2016</v>
       </c>
       <c r="C93">
-        <v>178050.890625</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>178050890.625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -1998,10 +2065,10 @@
         <v>2016</v>
       </c>
       <c r="C94">
-        <v>604.3184814453125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>604318.4814453125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2009,10 +2076,10 @@
         <v>2016</v>
       </c>
       <c r="C95">
-        <v>235.89743041992187</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>235897.43041992188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2020,18 +2087,21 @@
         <v>2016</v>
       </c>
       <c r="C96">
-        <v>435.89743041992187</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>435897.43041992188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
       <c r="B97">
         <v>2016</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -2039,10 +2109,10 @@
         <v>2016</v>
       </c>
       <c r="C98">
-        <v>2235.8974609375</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>2235897.4609375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -2050,10 +2120,10 @@
         <v>2016</v>
       </c>
       <c r="C99">
-        <v>3851.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>3851500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -2061,10 +2131,10 @@
         <v>2016</v>
       </c>
       <c r="C100">
-        <v>1279.3184814453125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>1279318.4814453125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -2072,18 +2142,21 @@
         <v>2016</v>
       </c>
       <c r="C101">
-        <v>19642.333984375</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>19642333.984375</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
       <c r="B102">
         <v>2016</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -2091,10 +2164,10 @@
         <v>2016</v>
       </c>
       <c r="C103">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>1375000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -2102,26 +2175,32 @@
         <v>2016</v>
       </c>
       <c r="C104">
-        <v>1975.6666259765625</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>1975666.6259765625</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
       <c r="B105">
         <v>2016</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
       <c r="B106">
         <v>2016</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -2129,10 +2208,10 @@
         <v>2016</v>
       </c>
       <c r="C107">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>1375000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -2140,10 +2219,10 @@
         <v>2016</v>
       </c>
       <c r="C108">
-        <v>19642.333984375</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>19642333.984375</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -2151,10 +2230,10 @@
         <v>2016</v>
       </c>
       <c r="C109">
-        <v>8951.5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>8951500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -2162,10 +2241,10 @@
         <v>2016</v>
       </c>
       <c r="C110">
-        <v>4210.8974609375</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>4210897.4609375</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -2173,7 +2252,7 @@
         <v>2016</v>
       </c>
       <c r="C111">
-        <v>6400.8974609375</v>
+        <v>6400897.4609375</v>
       </c>
     </row>
   </sheetData>
@@ -2188,45 +2267,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B2" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="B3" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="B4" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2235,20 +2314,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>112</v>
       </c>
@@ -2286,7 +2365,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -2300,7 +2379,7 @@
       <c r="K2" s="15"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2326,7 +2405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>111</v>
       </c>
@@ -2352,12 +2431,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
         <v>128</v>
@@ -2390,12 +2469,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>140</v>
+      <c r="B6" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>128</v>
@@ -2428,7 +2507,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>130</v>
       </c>
@@ -2441,7 +2520,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>131</v>
       </c>
@@ -2456,7 +2535,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>132</v>
       </c>
@@ -2470,7 +2549,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>133</v>
       </c>
@@ -2485,7 +2564,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>134</v>
       </c>
@@ -2500,7 +2579,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>135</v>
       </c>
@@ -2515,7 +2594,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>136</v>
       </c>
@@ -2527,7 +2606,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>137</v>
       </c>
